--- a/document/tcs (5).xlsx
+++ b/document/tcs (5).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:D99"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/document/tcs (5).xlsx
+++ b/document/tcs (5).xlsx
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/document/tcs (5).xlsx
+++ b/document/tcs (5).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
